--- a/biology/Botanique/Eranthemum/Eranthemum.xlsx
+++ b/biology/Botanique/Eranthemum/Eranthemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eranthemum est un genre de plantes à fleurs de la famille des Acanthaceae. Il regroupe 184 espèces originaires d'Asie.
 </t>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon "The Plant List"[2]   16 septembre 2012
+          <t>Selon "The Plant List"[2]   16 septembre 2012</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eranthemum austrosinensis H.S.Lo ,  (1979)
 Eranthemum austrosinensis var. pubipetalum (S.Z. Huang ex H.B. Cui) T.L. Li &amp; Y.F. Deng ,  (2007)
 Eranthemum burmanicum (T.Anderson) N.P.Balakr. ,  (1970)
@@ -537,12 +555,115 @@
 Eranthemum tubiflorum (T.Anderson) Radlk. ex Lindau ,  (1895)
 Eranthemum viscidum Blume ,  (1826)
 Eranthemum wattii (Bedd.) Stapf  ,  (1909)
-Selon NCBI  (5 sept. 2010)[3]
-Eranthemum pulchellum
-Selon ITIS      (5 sept. 2010)[4]
-Eranthemum pulchellum Andr.
-Selon PPP-Index
-Eranthemum acanthoides
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eranthemum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eranthemum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 sept. 2010)[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eranthemum pulchellum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eranthemum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eranthemum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (5 sept. 2010)[4]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eranthemum pulchellum Andr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eranthemum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eranthemum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon PPP-Index</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eranthemum acanthoides
 Eranthemum acanthophorum
 Eranthemum aciculare
 Eranthemum acuminatissimum
@@ -550,33 +671,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Eranthemum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eranthemum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   16 septembre 2012
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   16 septembre 2012
 Eranthemum acanthodes Spreng.  = Scolosanthus acanthodes (Spreng.) Urb. , (1900)
 Eranthemum aciculare (Sw.) R.Br. ex Roem. &amp; Schult. = Oplonia acicularis (Sw.) Stearn
 Eranthemum acuminatissimum Miq.  = Pseuderanthemum acuminatissimum (Miq.) Radlk.
@@ -699,33 +822,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Eranthemum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eranthemum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Espèces aux statuts non encore décidés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]    16 septembre 2012
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"    16 septembre 2012
 Eranthemum acanthophorum (Nees) Schult.
 Eranthemum adenocarpum S.F.Blake
 Eranthemum affine Warb. [Unplaced]
